--- a/exploitabilityTesting/results_reward_intermedia.xlsx
+++ b/exploitabilityTesting/results_reward_intermedia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Iterations</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>MODEL2</t>
+  </si>
+  <si>
+    <t>modelos entrenados con reward igual a puntos ganados</t>
   </si>
 </sst>
 </file>
@@ -313,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,6 +408,9 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -418,7 +424,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1053,11 +1059,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="178197536"/>
-        <c:axId val="178200672"/>
+        <c:axId val="184676432"/>
+        <c:axId val="184675256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178197536"/>
+        <c:axId val="184676432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,7 +1120,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178200672"/>
+        <c:crossAx val="184675256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1122,7 +1128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178200672"/>
+        <c:axId val="184675256"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1182,7 +1188,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178197536"/>
+        <c:crossAx val="184676432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1927,11 +1933,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="178201456"/>
-        <c:axId val="402753336"/>
+        <c:axId val="184678000"/>
+        <c:axId val="184675648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178201456"/>
+        <c:axId val="184678000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1988,7 +1994,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402753336"/>
+        <c:crossAx val="184675648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1996,7 +2002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="402753336"/>
+        <c:axId val="184675648"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2055,7 +2061,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178201456"/>
+        <c:crossAx val="184678000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3602,8 +3608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3615,14 +3621,14 @@
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34"/>
+      <c r="F1" s="35"/>
       <c r="G1"/>
       <c r="H1"/>
     </row>
@@ -3645,16 +3651,20 @@
       </c>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
+      <c r="I2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
@@ -4200,12 +4210,12 @@
       <c r="F35" s="24"/>
       <c r="G35"/>
       <c r="H35"/>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="35"/>
-      <c r="Z35" s="35"/>
-      <c r="AA35" s="35"/>
-      <c r="AB35" s="35"/>
-      <c r="AC35" s="35"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="31"/>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
@@ -4883,9 +4893,10 @@
     </row>
     <row r="122" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="I2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
